--- a/Data/EC/NIT-9011435479.xlsx
+++ b/Data/EC/NIT-9011435479.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{019B2426-F834-4DA8-B027-C629C267ED6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0736DDA8-2520-4109-B3C0-1738AF197E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{25952F81-FAE0-47A6-93C1-365EC70A2447}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AACAC187-1326-4C71-9F13-1B9F1B445282}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,79 +65,79 @@
     <t>CC</t>
   </si>
   <si>
+    <t>7917241</t>
+  </si>
+  <si>
+    <t>PEDRO CARRILLO CABARCAS</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>73163193</t>
+  </si>
+  <si>
+    <t>LUIS HERRERA BUSTOS</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1050951934</t>
+  </si>
+  <si>
+    <t>YEISER XAVIER LAMBIS PEREZ</t>
+  </si>
+  <si>
+    <t>73136795</t>
+  </si>
+  <si>
+    <t>FABIO VANEGAS MONTES</t>
+  </si>
+  <si>
     <t>73118243</t>
   </si>
   <si>
     <t>LUIS FERNANDO HERRERA MENDIVIL</t>
   </si>
   <si>
-    <t>1810</t>
+    <t>9283589</t>
+  </si>
+  <si>
+    <t>FREDYS RAMON ARNEDO CARRILLO</t>
   </si>
   <si>
     <t>73187817</t>
   </si>
   <si>
     <t>JOSE MANUEL MARCELO BARRIOS</t>
-  </si>
-  <si>
-    <t>73163193</t>
-  </si>
-  <si>
-    <t>LUIS HERRERA BUSTOS</t>
-  </si>
-  <si>
-    <t>73136795</t>
-  </si>
-  <si>
-    <t>FABIO VANEGAS MONTES</t>
-  </si>
-  <si>
-    <t>9283589</t>
-  </si>
-  <si>
-    <t>FREDYS RAMON ARNEDO CARRILLO</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>7917241</t>
-  </si>
-  <si>
-    <t>PEDRO CARRILLO CABARCAS</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1050951934</t>
-  </si>
-  <si>
-    <t>YEISER XAVIER LAMBIS PEREZ</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -181,7 +181,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,7 +551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AB1EA6-EDD3-9A12-FACD-B73F46DE9CCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B30A138F-A0FC-A16A-5AE7-F06FE518C103}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,28 +902,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B71842E-8441-4D83-AA2D-EB7463FAEE3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A022A4A-A2E7-4F23-BCAB-6E4BD1276B5D}">
   <dimension ref="B2:J92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -936,7 +936,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -947,7 +947,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -958,7 +958,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -969,8 +969,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
@@ -985,8 +985,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1001,8 +1001,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
@@ -1017,8 +1017,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>21874</v>
+        <v>19791</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1089,21 +1089,21 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1112,21 +1112,21 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1135,21 +1135,21 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1158,21 +1158,21 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1181,18 +1181,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1204,18 +1204,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1227,18 +1227,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1250,18 +1250,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1273,7 +1273,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>16666</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1296,7 +1296,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1307,10 +1307,10 @@
         <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>16666</v>
+        <v>19791</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1319,18 +1319,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1342,18 +1342,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1365,18 +1365,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1388,7 +1388,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1411,18 +1411,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1434,18 +1434,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1457,18 +1457,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1480,18 +1480,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1503,7 +1503,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>22</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1526,21 +1526,21 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1549,159 +1549,159 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>20979</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>19791</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1710,18 +1710,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1733,18 +1733,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1756,18 +1756,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1779,41 +1779,41 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E47" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F47" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -1825,18 +1825,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D49" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -1848,18 +1848,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1871,18 +1871,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -1894,18 +1894,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -1917,21 +1917,21 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -1940,21 +1940,21 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>19791</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -1963,18 +1963,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -1986,18 +1986,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2009,41 +2009,41 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F57" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2055,41 +2055,41 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F59" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2101,18 +2101,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2124,18 +2124,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2147,18 +2147,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2170,21 +2170,21 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2193,21 +2193,21 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>19791</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2216,18 +2216,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2239,18 +2239,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2262,18 +2262,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2285,18 +2285,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2308,18 +2308,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2331,18 +2331,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2354,41 +2354,41 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F72" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2400,18 +2400,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2423,21 +2423,21 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2446,21 +2446,21 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>19791</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2469,18 +2469,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2492,18 +2492,18 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2515,44 +2515,44 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F79" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F80" s="18">
-        <v>19791</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2561,21 +2561,21 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F81" s="18">
-        <v>19791</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2584,21 +2584,21 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F82" s="18">
-        <v>19791</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2607,44 +2607,44 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F83" s="18">
-        <v>20979</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F84" s="18">
-        <v>19791</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2653,21 +2653,21 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F85" s="18">
-        <v>19791</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2676,21 +2676,21 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F86" s="24">
-        <v>19791</v>
+        <v>21874</v>
       </c>
       <c r="G86" s="24">
         <v>781242</v>
@@ -2699,7 +2699,7 @@
       <c r="I86" s="25"/>
       <c r="J86" s="26"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="32" t="s">
         <v>43</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="32" t="s">
         <v>42</v>
       </c>

--- a/Data/EC/NIT-9011435479.xlsx
+++ b/Data/EC/NIT-9011435479.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0736DDA8-2520-4109-B3C0-1738AF197E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE56E56D-47F8-4B9E-A358-A12D024FBC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AACAC187-1326-4C71-9F13-1B9F1B445282}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2ADBD35C-03A4-42A4-B21D-864A0069D301}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,79 +65,79 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73163193</t>
+  </si>
+  <si>
+    <t>LUIS HERRERA BUSTOS</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>73136795</t>
+  </si>
+  <si>
+    <t>FABIO VANEGAS MONTES</t>
+  </si>
+  <si>
+    <t>73118243</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO HERRERA MENDIVIL</t>
+  </si>
+  <si>
+    <t>9283589</t>
+  </si>
+  <si>
+    <t>FREDYS RAMON ARNEDO CARRILLO</t>
+  </si>
+  <si>
+    <t>73187817</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL MARCELO BARRIOS</t>
+  </si>
+  <si>
     <t>7917241</t>
   </si>
   <si>
     <t>PEDRO CARRILLO CABARCAS</t>
   </si>
   <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1050951934</t>
+  </si>
+  <si>
+    <t>YEISER XAVIER LAMBIS PEREZ</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
     <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>73163193</t>
-  </si>
-  <si>
-    <t>LUIS HERRERA BUSTOS</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1050951934</t>
-  </si>
-  <si>
-    <t>YEISER XAVIER LAMBIS PEREZ</t>
-  </si>
-  <si>
-    <t>73136795</t>
-  </si>
-  <si>
-    <t>FABIO VANEGAS MONTES</t>
-  </si>
-  <si>
-    <t>73118243</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO HERRERA MENDIVIL</t>
-  </si>
-  <si>
-    <t>9283589</t>
-  </si>
-  <si>
-    <t>FREDYS RAMON ARNEDO CARRILLO</t>
-  </si>
-  <si>
-    <t>73187817</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL MARCELO BARRIOS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -181,7 +181,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +236,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -249,9 +251,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,23 +451,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,10 +495,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B30A138F-A0FC-A16A-5AE7-F06FE518C103}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDAFA1B7-3B53-B661-8702-9FC406D43C37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,28 +902,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A022A4A-A2E7-4F23-BCAB-6E4BD1276B5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFDA98C-CCD1-4D4F-AC29-76E2CD58FF5D}">
   <dimension ref="B2:J92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -936,7 +936,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -947,7 +947,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -958,7 +958,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -969,8 +969,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
@@ -985,8 +985,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1001,8 +1001,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
@@ -1017,8 +1017,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>19791</v>
+        <v>21874</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1089,21 +1089,21 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1112,21 +1112,21 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1135,21 +1135,21 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1158,21 +1158,21 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1181,21 +1181,21 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>16666</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1204,7 +1204,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1227,18 +1227,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1250,18 +1250,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1273,21 +1273,21 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>16666</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1296,21 +1296,21 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F26" s="18">
-        <v>19791</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1319,18 +1319,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1342,18 +1342,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1365,18 +1365,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1388,18 +1388,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1411,18 +1411,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1434,18 +1434,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1457,18 +1457,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E33" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1480,18 +1480,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1503,18 +1503,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1526,21 +1526,21 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1549,159 +1549,159 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F37" s="18">
-        <v>20979</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F38" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F39" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F40" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F41" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F42" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F43" s="18">
-        <v>19791</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1710,18 +1710,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1733,18 +1733,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1756,18 +1756,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1779,41 +1779,41 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -1825,18 +1825,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -1848,18 +1848,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1871,18 +1871,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -1894,18 +1894,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -1917,21 +1917,21 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F53" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -1940,41 +1940,41 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="E54" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F54" s="18">
-        <v>19791</v>
+        <v>33125</v>
       </c>
       <c r="G54" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -1986,18 +1986,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2009,18 +2009,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D57" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2032,18 +2032,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D58" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2055,18 +2055,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2078,18 +2078,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2101,41 +2101,41 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="E61" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G61" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2147,18 +2147,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2170,21 +2170,21 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F64" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2193,21 +2193,21 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F65" s="18">
-        <v>19791</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2216,18 +2216,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D66" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2239,18 +2239,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2262,41 +2262,41 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D68" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G68" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2308,18 +2308,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2331,18 +2331,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D71" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2354,18 +2354,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D72" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2377,18 +2377,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2400,18 +2400,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2423,44 +2423,44 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F75" s="18">
-        <v>21874</v>
+        <v>33125</v>
       </c>
       <c r="G75" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F76" s="18">
-        <v>19791</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2469,18 +2469,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2492,18 +2492,18 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2515,18 +2515,18 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2538,21 +2538,21 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D80" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E80" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>19791</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2561,21 +2561,21 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E81" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>19791</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2584,44 +2584,44 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D82" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E82" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>20979</v>
       </c>
       <c r="G82" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E83" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>19791</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2630,21 +2630,21 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E84" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>19791</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2653,21 +2653,21 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D85" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E85" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>19791</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2676,21 +2676,21 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D86" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E86" s="22" t="s">
-        <v>23</v>
-      </c>
       <c r="F86" s="24">
-        <v>21874</v>
+        <v>19791</v>
       </c>
       <c r="G86" s="24">
         <v>781242</v>
@@ -2699,7 +2699,7 @@
       <c r="I86" s="25"/>
       <c r="J86" s="26"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="32" t="s">
         <v>43</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="32" t="s">
         <v>42</v>
       </c>

--- a/Data/EC/NIT-9011435479.xlsx
+++ b/Data/EC/NIT-9011435479.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE56E56D-47F8-4B9E-A358-A12D024FBC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{341D8933-334D-47B4-A281-A969BEE7769D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2ADBD35C-03A4-42A4-B21D-864A0069D301}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{256D103A-89BD-4075-AC90-CAB3F3351B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,9 +236,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -251,7 +249,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,29 +445,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,19 +486,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDAFA1B7-3B53-B661-8702-9FC406D43C37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E61AFEB-32E5-AC84-0908-C70E0ADFD6AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,80 +908,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFDA98C-CCD1-4D4F-AC29-76E2CD58FF5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C0D846-C976-4DAB-BCC8-774E2B4D463A}">
   <dimension ref="B2:J92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -985,13 +991,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9011435479</v>
       </c>
@@ -1001,13 +1007,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>2087583</v>
       </c>
@@ -1017,8 +1023,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1037,7 +1043,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1076,20 +1082,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>21874</v>
       </c>
-      <c r="G16" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="G16" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1099,20 +1105,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>21874</v>
       </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1122,20 +1128,20 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>21874</v>
       </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1145,20 +1151,20 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>21874</v>
       </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1168,20 +1174,20 @@
       <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>21874</v>
       </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1191,20 +1197,20 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>16666</v>
       </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1214,20 +1220,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="F22" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1237,20 +1243,20 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="F23" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1260,20 +1266,20 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="F24" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1283,20 +1289,20 @@
       <c r="D25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="F25" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1306,20 +1312,20 @@
       <c r="D26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="F26" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1329,20 +1335,20 @@
       <c r="D27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="F27" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1352,20 +1358,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="F28" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1375,20 +1381,20 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="F29" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1398,20 +1404,20 @@
       <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="F30" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1421,20 +1427,20 @@
       <c r="D31" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="F31" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1444,20 +1450,20 @@
       <c r="D32" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="F32" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1467,20 +1473,20 @@
       <c r="D33" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="F33" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1490,20 +1496,20 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="F34" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1513,20 +1519,20 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="F35" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1536,20 +1542,20 @@
       <c r="D36" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F36" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1559,20 +1565,20 @@
       <c r="D37" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="F37" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1582,20 +1588,20 @@
       <c r="D38" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="F38" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1605,20 +1611,20 @@
       <c r="D39" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="F39" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1628,20 +1634,20 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="F40" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1651,20 +1657,20 @@
       <c r="D41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="F41" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1674,20 +1680,20 @@
       <c r="D42" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="F42" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1697,20 +1703,20 @@
       <c r="D43" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="F43" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1720,20 +1726,20 @@
       <c r="D44" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="F44" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1743,20 +1749,20 @@
       <c r="D45" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="F45" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1766,20 +1772,20 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="F46" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1789,20 +1795,20 @@
       <c r="D47" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>33125</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>828116</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1812,20 +1818,20 @@
       <c r="D48" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="F48" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1835,20 +1841,20 @@
       <c r="D49" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="F49" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1858,20 +1864,20 @@
       <c r="D50" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G50" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="F50" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G50" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1881,20 +1887,20 @@
       <c r="D51" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G51" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="F51" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G51" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1904,20 +1910,20 @@
       <c r="D52" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G52" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="F52" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G52" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -1927,20 +1933,20 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G53" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="F53" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G53" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -1950,20 +1956,20 @@
       <c r="D54" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>33125</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="19">
         <v>828116</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -1973,20 +1979,20 @@
       <c r="D55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G55" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="F55" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G55" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -1996,20 +2002,20 @@
       <c r="D56" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F56" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G56" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="F56" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G56" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2019,20 +2025,20 @@
       <c r="D57" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G57" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="F57" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G57" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2042,20 +2048,20 @@
       <c r="D58" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F58" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G58" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="F58" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G58" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2065,20 +2071,20 @@
       <c r="D59" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G59" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="F59" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G59" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2088,20 +2094,20 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G60" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="F60" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G60" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2111,20 +2117,20 @@
       <c r="D61" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="19">
         <v>33125</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="19">
         <v>828116</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2134,20 +2140,20 @@
       <c r="D62" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G62" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="F62" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G62" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2157,20 +2163,20 @@
       <c r="D63" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G63" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10">
+      <c r="F63" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G63" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2180,20 +2186,20 @@
       <c r="D64" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G64" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="F64" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G64" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2203,20 +2209,20 @@
       <c r="D65" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G65" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="F65" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G65" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2226,20 +2232,20 @@
       <c r="D66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G66" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10">
+      <c r="F66" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G66" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2249,20 +2255,20 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G67" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10">
+      <c r="F67" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G67" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2272,20 +2278,20 @@
       <c r="D68" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="19">
         <v>33125</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="19">
         <v>828116</v>
       </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2295,20 +2301,20 @@
       <c r="D69" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G69" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="F69" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G69" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2318,20 +2324,20 @@
       <c r="D70" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F70" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G70" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="F70" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G70" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2341,20 +2347,20 @@
       <c r="D71" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G71" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10">
+      <c r="F71" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G71" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2364,20 +2370,20 @@
       <c r="D72" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G72" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10">
+      <c r="F72" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G72" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2387,20 +2393,20 @@
       <c r="D73" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F73" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G73" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10">
+      <c r="F73" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G73" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2410,20 +2416,20 @@
       <c r="D74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F74" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G74" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10">
+      <c r="F74" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G74" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2433,20 +2439,20 @@
       <c r="D75" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="19">
         <v>33125</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="19">
         <v>828116</v>
       </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10">
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2456,20 +2462,20 @@
       <c r="D76" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F76" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G76" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10">
+      <c r="F76" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G76" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2479,20 +2485,20 @@
       <c r="D77" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F77" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G77" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10">
+      <c r="F77" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G77" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2502,20 +2508,20 @@
       <c r="D78" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F78" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G78" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10">
+      <c r="F78" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G78" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2525,20 +2531,20 @@
       <c r="D79" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F79" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G79" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10">
+      <c r="F79" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G79" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2548,20 +2554,20 @@
       <c r="D80" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="19">
         <v>19791</v>
       </c>
-      <c r="G80" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10">
+      <c r="G80" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2571,20 +2577,20 @@
       <c r="D81" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="19">
         <v>19791</v>
       </c>
-      <c r="G81" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10">
+      <c r="G81" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2594,20 +2600,20 @@
       <c r="D82" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="19">
         <v>20979</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G82" s="19">
         <v>828116</v>
       </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10">
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2617,20 +2623,20 @@
       <c r="D83" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F83" s="19">
         <v>19791</v>
       </c>
-      <c r="G83" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10">
+      <c r="G83" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2640,20 +2646,20 @@
       <c r="D84" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="19">
         <v>19791</v>
       </c>
-      <c r="G84" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10">
+      <c r="G84" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2663,58 +2669,58 @@
       <c r="D85" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F85" s="19">
         <v>19791</v>
       </c>
-      <c r="G85" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10">
-      <c r="B86" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="22" t="s">
+      <c r="G85" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="23" t="s">
+      <c r="D86" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F86" s="24">
+      <c r="F86" s="26">
         <v>19791</v>
       </c>
-      <c r="G86" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="26"/>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="32" t="s">
+      <c r="G86" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="28"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C91" s="32"/>
+      <c r="C91" s="34"/>
       <c r="H91" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="32" t="s">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C92" s="32"/>
+      <c r="C92" s="34"/>
       <c r="H92" s="1" t="s">
         <v>44</v>
       </c>
